--- a/13/1/2/2/Operaciones financieras 2005 a 2021 - Mensual.xlsx
+++ b/13/1/2/2/Operaciones financieras 2005 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="223">
   <si>
     <t>Serie</t>
   </si>
@@ -680,6 +680,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1040,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB199"/>
+  <dimension ref="A1:AB200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17756,7 +17759,7 @@
         <v>-4153</v>
       </c>
       <c r="J195">
-        <v>-81641</v>
+        <v>-81642</v>
       </c>
       <c r="K195">
         <v>0</v>
@@ -17818,7 +17821,7 @@
         <v>218</v>
       </c>
       <c r="B196">
-        <v>-2386842</v>
+        <v>-2406542</v>
       </c>
       <c r="C196">
         <v>1189</v>
@@ -17842,7 +17845,7 @@
         <v>-22014</v>
       </c>
       <c r="J196">
-        <v>-100640</v>
+        <v>-120340</v>
       </c>
       <c r="K196">
         <v>0</v>
@@ -17896,7 +17899,7 @@
         <v>-27948</v>
       </c>
       <c r="AB196">
-        <v>-1634185</v>
+        <v>-1653885</v>
       </c>
     </row>
     <row r="197" spans="1:28">
@@ -17904,7 +17907,7 @@
         <v>219</v>
       </c>
       <c r="B197">
-        <v>2661804</v>
+        <v>2661805</v>
       </c>
       <c r="C197">
         <v>-53013</v>
@@ -17928,7 +17931,7 @@
         <v>-5027</v>
       </c>
       <c r="J197">
-        <v>2637871</v>
+        <v>2637872</v>
       </c>
       <c r="K197">
         <v>0</v>
@@ -17982,7 +17985,7 @@
         <v>-27220</v>
       </c>
       <c r="AB197">
-        <v>1413220</v>
+        <v>1413221</v>
       </c>
     </row>
     <row r="198" spans="1:28">
@@ -18076,7 +18079,7 @@
         <v>221</v>
       </c>
       <c r="B199">
-        <v>-2171917</v>
+        <v>-2152217</v>
       </c>
       <c r="C199">
         <v>335069</v>
@@ -18100,7 +18103,7 @@
         <v>-8866</v>
       </c>
       <c r="J199">
-        <v>21985</v>
+        <v>41685</v>
       </c>
       <c r="K199">
         <v>0</v>
@@ -18154,7 +18157,93 @@
         <v>-28521</v>
       </c>
       <c r="AB199">
-        <v>-2275712</v>
+        <v>-2256012</v>
+      </c>
+    </row>
+    <row r="200" spans="1:28">
+      <c r="A200" t="s">
+        <v>222</v>
+      </c>
+      <c r="B200">
+        <v>2744853</v>
+      </c>
+      <c r="C200">
+        <v>125601</v>
+      </c>
+      <c r="D200">
+        <v>203581</v>
+      </c>
+      <c r="E200">
+        <v>77980</v>
+      </c>
+      <c r="F200">
+        <v>2441164</v>
+      </c>
+      <c r="G200">
+        <v>3302075</v>
+      </c>
+      <c r="H200">
+        <v>860911</v>
+      </c>
+      <c r="I200">
+        <v>30477</v>
+      </c>
+      <c r="J200">
+        <v>147611</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>0</v>
+      </c>
+      <c r="O200">
+        <v>0</v>
+      </c>
+      <c r="P200">
+        <v>6177206</v>
+      </c>
+      <c r="Q200">
+        <v>4325590</v>
+      </c>
+      <c r="R200">
+        <v>4327211</v>
+      </c>
+      <c r="S200">
+        <v>4327211</v>
+      </c>
+      <c r="T200">
+        <v>0</v>
+      </c>
+      <c r="U200">
+        <v>1622</v>
+      </c>
+      <c r="V200">
+        <v>1881263</v>
+      </c>
+      <c r="W200">
+        <v>2794447</v>
+      </c>
+      <c r="X200">
+        <v>2794447</v>
+      </c>
+      <c r="Y200">
+        <v>0</v>
+      </c>
+      <c r="Z200">
+        <v>913184</v>
+      </c>
+      <c r="AA200">
+        <v>-29646</v>
+      </c>
+      <c r="AB200">
+        <v>-3432353</v>
       </c>
     </row>
   </sheetData>

--- a/13/1/2/2/Operaciones financieras 2005 a 2021 - Mensual.xlsx
+++ b/13/1/2/2/Operaciones financieras 2005 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="224">
   <si>
     <t>Serie</t>
   </si>
@@ -683,6 +683,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1043,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB200"/>
+  <dimension ref="A1:AB201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18246,6 +18249,92 @@
         <v>-3432353</v>
       </c>
     </row>
+    <row r="201" spans="1:28">
+      <c r="A201" t="s">
+        <v>223</v>
+      </c>
+      <c r="B201">
+        <v>-1746495</v>
+      </c>
+      <c r="C201">
+        <v>46428</v>
+      </c>
+      <c r="D201">
+        <v>146273</v>
+      </c>
+      <c r="E201">
+        <v>99844</v>
+      </c>
+      <c r="F201">
+        <v>-2373868</v>
+      </c>
+      <c r="G201">
+        <v>-1573482</v>
+      </c>
+      <c r="H201">
+        <v>800386</v>
+      </c>
+      <c r="I201">
+        <v>-1901</v>
+      </c>
+      <c r="J201">
+        <v>582847</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201">
+        <v>0</v>
+      </c>
+      <c r="O201">
+        <v>0</v>
+      </c>
+      <c r="P201">
+        <v>305250</v>
+      </c>
+      <c r="Q201">
+        <v>40</v>
+      </c>
+      <c r="R201">
+        <v>2021</v>
+      </c>
+      <c r="S201">
+        <v>0</v>
+      </c>
+      <c r="T201">
+        <v>2021</v>
+      </c>
+      <c r="U201">
+        <v>1980</v>
+      </c>
+      <c r="V201">
+        <v>336433</v>
+      </c>
+      <c r="W201">
+        <v>905201</v>
+      </c>
+      <c r="X201">
+        <v>905201</v>
+      </c>
+      <c r="Y201">
+        <v>0</v>
+      </c>
+      <c r="Z201">
+        <v>568768</v>
+      </c>
+      <c r="AA201">
+        <v>-31223</v>
+      </c>
+      <c r="AB201">
+        <v>-2051745</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/13/1/2/2/Operaciones financieras 2005 a 2021 - Mensual.xlsx
+++ b/13/1/2/2/Operaciones financieras 2005 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="225">
   <si>
     <t>Serie</t>
   </si>
@@ -686,6 +686,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1046,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB201"/>
+  <dimension ref="A1:AB202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18335,6 +18338,92 @@
         <v>-2051745</v>
       </c>
     </row>
+    <row r="202" spans="1:28">
+      <c r="A202" t="s">
+        <v>224</v>
+      </c>
+      <c r="B202">
+        <v>-879447</v>
+      </c>
+      <c r="C202">
+        <v>33721</v>
+      </c>
+      <c r="D202">
+        <v>109837</v>
+      </c>
+      <c r="E202">
+        <v>76116</v>
+      </c>
+      <c r="F202">
+        <v>-576313</v>
+      </c>
+      <c r="G202">
+        <v>-225656</v>
+      </c>
+      <c r="H202">
+        <v>350657</v>
+      </c>
+      <c r="I202">
+        <v>113</v>
+      </c>
+      <c r="J202">
+        <v>-336968</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202">
+        <v>0</v>
+      </c>
+      <c r="O202">
+        <v>0</v>
+      </c>
+      <c r="P202">
+        <v>1547142</v>
+      </c>
+      <c r="Q202">
+        <v>1241236</v>
+      </c>
+      <c r="R202">
+        <v>1598776</v>
+      </c>
+      <c r="S202">
+        <v>1598776</v>
+      </c>
+      <c r="T202">
+        <v>0</v>
+      </c>
+      <c r="U202">
+        <v>357540</v>
+      </c>
+      <c r="V202">
+        <v>337977</v>
+      </c>
+      <c r="W202">
+        <v>951168</v>
+      </c>
+      <c r="X202">
+        <v>951168</v>
+      </c>
+      <c r="Y202">
+        <v>0</v>
+      </c>
+      <c r="Z202">
+        <v>613191</v>
+      </c>
+      <c r="AA202">
+        <v>-32071</v>
+      </c>
+      <c r="AB202">
+        <v>-2426589</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
